--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDP-1 Project\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDP-1-Project\Final\BUBT-SDP-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A3C650C-D77D-4ECC-8307-A77B13E48FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E989A3-1047-4502-B441-37AD19106AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="0" windowWidth="14256" windowHeight="13056" xr2:uid="{0EA8939F-A5D1-45FC-88AD-00382EFAF581}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{0EA8939F-A5D1-45FC-88AD-00382EFAF581}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,14 +465,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>202164</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>176245</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>5185</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>183368</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -487,8 +487,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352940" y="2716245"/>
-          <a:ext cx="222898" cy="549469"/>
+          <a:off x="1347201" y="2193303"/>
+          <a:ext cx="218658" cy="557231"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -596,15 +596,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>124410</xdr:colOff>
+      <xdr:colOff>134471</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>176245</xdr:rowOff>
+      <xdr:rowOff>176243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>5184</xdr:rowOff>
+      <xdr:rowOff>5182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -619,8 +619,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="946023" y="863081"/>
-          <a:ext cx="191796" cy="632409"/>
+          <a:off x="1049236" y="777328"/>
+          <a:ext cx="195677" cy="827198"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -663,14 +663,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>5184</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>5184</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9253</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -685,8 +685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1363306" y="1088572"/>
-          <a:ext cx="207347" cy="549469"/>
+          <a:off x="1353965" y="554177"/>
+          <a:ext cx="206709" cy="555290"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79E30C3-D6C6-4BBA-852A-B7DB0A8873A2}">
   <dimension ref="A3:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="187" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
       <c r="G19" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
